--- a/sputnik/personal/ee/101ee.xlsx
+++ b/sputnik/personal/ee/101ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,13 +39,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>Оплачено 3000,00 по показаниям 2769,30 остаток 230,70?</t>
-  </si>
-  <si>
-    <t>Оплачено 4300,00 по показаниям 4153,56 остаток 146,44?</t>
-  </si>
-  <si>
-    <t>переплата</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -61,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,29 +87,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -116,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,35 +132,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -199,28 +155,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -528,288 +469,367 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43232</v>
+        <v>43366</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>3938</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>4299</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>2567</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="3">
+        <v>2797</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43295</v>
+        <v>43577</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>4128</v>
+        <v>5040</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>190</v>
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>741</v>
       </c>
       <c r="E4" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>855</v>
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>3386.3700000000003</v>
+      </c>
+      <c r="G4" s="10">
+        <f>SUM(F4,F5)</f>
+        <v>4153.5600000000004</v>
+      </c>
+      <c r="H4" s="10">
+        <v>4300</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>2693</v>
+        <v>3118</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>321</v>
       </c>
       <c r="E5" s="6">
-        <v>2.35</v>
-      </c>
-      <c r="F5" s="6">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="9">
         <f t="shared" si="1"/>
-        <v>296.10000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>767.19</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43366</v>
+        <v>43609</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>4299</v>
+        <v>5510</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>171</v>
+        <f t="shared" ref="D6:D15" si="2">C6-C4</f>
+        <v>470</v>
       </c>
       <c r="E6" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>769.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+        <v>4.57</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" ref="F6:F15" si="3">D6*E6</f>
+        <v>2147.9</v>
+      </c>
+      <c r="G6" s="10">
+        <f>SUM(F6,F7)</f>
+        <v>2769.3</v>
+      </c>
+      <c r="H6" s="10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>2797</v>
+        <v>3378</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>260</v>
       </c>
       <c r="E7" s="6">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>244.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.39</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="3"/>
+        <v>621.4</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43577</v>
+        <v>43649</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>5040</v>
+        <v>5592</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>741</v>
-      </c>
-      <c r="E8" s="9">
-        <v>4.57</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>3386.3700000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="3"/>
+        <v>368.18</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(F8,F9)</f>
+        <v>475.1</v>
+      </c>
+      <c r="H8" s="10">
+        <v>479.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>3118</v>
+        <v>3422</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>321</v>
-      </c>
-      <c r="E9" s="9">
-        <v>2.39</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>767.19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="3"/>
+        <v>106.92</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43577</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+        <v>43766</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5872</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="3"/>
+        <v>1257.2</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(F10,F11)</f>
+        <v>1590.1100000000001</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1607.03</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43609</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3559</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="3"/>
+        <v>332.91</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>43830</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="3">
-        <v>5510</v>
-      </c>
-      <c r="D11" s="3">
-        <f>C11-C8</f>
-        <v>470</v>
-      </c>
-      <c r="E11" s="9">
-        <v>4.57</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>2147.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3">
+        <v>6769</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="2"/>
+        <v>897</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="3"/>
+        <v>4027.53</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(F12,F13)</f>
+        <v>5213.3700000000008</v>
+      </c>
+      <c r="H12" s="10">
+        <v>5265.59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="3">
-        <v>3378</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12-C9</f>
-        <v>260</v>
-      </c>
-      <c r="E12" s="9">
-        <v>2.39</v>
-      </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>621.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>43609</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="C13" s="3">
+        <v>4047</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="2"/>
+        <v>488</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="3"/>
+        <v>1185.8400000000001</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43649</v>
+        <v>43882</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>5592</v>
+        <v>7536</v>
       </c>
       <c r="D14" s="3">
-        <f>C14-C11</f>
-        <v>82</v>
-      </c>
-      <c r="E14" s="9">
+        <f t="shared" si="2"/>
+        <v>767</v>
+      </c>
+      <c r="E14" s="6">
         <v>4.49</v>
       </c>
-      <c r="F14" s="6">
-        <f>D14*E14</f>
-        <v>368.18</v>
+      <c r="F14" s="9">
+        <f t="shared" si="3"/>
+        <v>3443.8300000000004</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>4410.97</v>
+      </c>
+      <c r="H14" s="10">
+        <v>4456.41</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -818,199 +838,97 @@
         <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>3422</v>
+        <v>4445</v>
       </c>
       <c r="D15" s="3">
-        <f>C15-C12</f>
-        <v>44</v>
-      </c>
-      <c r="E15" s="9">
+        <f t="shared" si="2"/>
+        <v>398</v>
+      </c>
+      <c r="E15" s="6">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F15" s="6">
-        <f>D15*E15</f>
-        <v>106.92</v>
-      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="3"/>
+        <v>967.1400000000001</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="10" t="s">
+      <c r="A16" s="4">
+        <v>43916</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7930</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="4">C16-C14</f>
+        <v>394</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" ref="F16:F17" si="5">D16*E16</f>
+        <v>1769.0600000000002</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(F16,F17)</f>
+        <v>2347.4</v>
+      </c>
+      <c r="H16" s="10">
+        <v>2369.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4683</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="4"/>
+        <v>238</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="5"/>
+        <v>578.34</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>43766</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>5872</v>
-      </c>
-      <c r="D17" s="3">
-        <f>C17-C14</f>
-        <v>280</v>
-      </c>
-      <c r="E17" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F17" s="6">
-        <f>D17*E17</f>
-        <v>1257.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3559</v>
-      </c>
-      <c r="D18" s="3">
-        <f>C18-C15</f>
-        <v>137</v>
-      </c>
-      <c r="E18" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F18" s="6">
-        <f>D18*E18</f>
-        <v>332.91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="12">
-        <v>16.920000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>43830</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>6769</v>
-      </c>
-      <c r="D20" s="3">
-        <f>C20-C17</f>
-        <v>897</v>
-      </c>
-      <c r="E20" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F20" s="6">
-        <f>D20*E20</f>
-        <v>4027.53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4047</v>
-      </c>
-      <c r="D21" s="3">
-        <f>C21-C18</f>
-        <v>488</v>
-      </c>
-      <c r="E21" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F21" s="6">
-        <f>D21*E21</f>
-        <v>1185.8400000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="12">
-        <v>52.22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>43882</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>7536</v>
-      </c>
-      <c r="D23" s="3">
-        <f>C23-C20</f>
-        <v>767</v>
-      </c>
-      <c r="E23" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F23" s="6">
-        <f>D23*E23</f>
-        <v>3443.8300000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>4445</v>
-      </c>
-      <c r="D24" s="3">
-        <f>C24-C21</f>
-        <v>398</v>
-      </c>
-      <c r="E24" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F24" s="6">
-        <f>D24*E24</f>
-        <v>967.1400000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="10">
-        <v>45.44</v>
+      <c r="G18" s="10">
+        <f>SUM(G3:G17)</f>
+        <v>20959.810000000005</v>
+      </c>
+      <c r="H18" s="10">
+        <f>SUM(H3:H17)</f>
+        <v>21478.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <f>SUM(H18,-G18)</f>
+        <v>518.5199999999968</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B10:F10"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/ee/101ee.xlsx
+++ b/sputnik/personal/ee/101ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -906,26 +906,77 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="4">
+        <v>43944</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>8706</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="6">C18-C16</f>
+        <v>776</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" ref="F18:F19" si="7">D18*E18</f>
+        <v>3484.2400000000002</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>4791.58</v>
+      </c>
+      <c r="H18" s="10">
+        <v>4832.1400000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5221</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="6"/>
+        <v>538</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="7"/>
+        <v>1307.3400000000001</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="10">
-        <f>SUM(G3:G17)</f>
-        <v>20959.810000000005</v>
-      </c>
-      <c r="H18" s="10">
-        <f>SUM(H3:H17)</f>
-        <v>21478.33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+      <c r="G20" s="10">
+        <f>SUM(G3:G19)</f>
+        <v>25751.390000000007</v>
+      </c>
+      <c r="H20" s="10">
+        <f>SUM(H3:H19)</f>
+        <v>26310.47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10">
-        <f>SUM(H18,-G18)</f>
-        <v>518.5199999999968</v>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <f>SUM(H20,-G20)</f>
+        <v>559.07999999999447</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/101ee.xlsx
+++ b/sputnik/personal/ee/101ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -957,26 +957,77 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="4">
+        <v>43983</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9244</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="8">C20-C18</f>
+        <v>538</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" ref="F20:F21" si="9">D20*E20</f>
+        <v>2415.62</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(F20,F21)</f>
+        <v>3275.84</v>
+      </c>
+      <c r="H20" s="10">
+        <v>2716.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5575</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="8"/>
+        <v>354</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="9"/>
+        <v>860.22</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="10">
-        <f>SUM(G3:G19)</f>
-        <v>25751.390000000007</v>
-      </c>
-      <c r="H20" s="10">
-        <f>SUM(H3:H19)</f>
-        <v>26310.47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+      <c r="G22" s="10">
+        <f>SUM(G3:G21)</f>
+        <v>29027.230000000007</v>
+      </c>
+      <c r="H22" s="10">
+        <f>SUM(H3:H21)</f>
+        <v>29027.230000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10">
-        <f>SUM(H20,-G20)</f>
-        <v>559.07999999999447</v>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
+        <f>SUM(H22,-G22)</f>
+        <v>-3.637978807091713E-12</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/101ee.xlsx
+++ b/sputnik/personal/ee/101ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1008,25 +1008,76 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="4">
+        <v>44070</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>9677</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="10">C22-C20</f>
+        <v>433</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" ref="F22:F23" si="11">D22*E22</f>
+        <v>2039.43</v>
+      </c>
+      <c r="G22" s="10">
+        <f>SUM(F22,F23)</f>
+        <v>2562.1800000000003</v>
+      </c>
+      <c r="H22" s="10">
+        <v>2562.1799999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>5780</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="10"/>
+        <v>205</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="11"/>
+        <v>522.75</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="10">
-        <f>SUM(G3:G21)</f>
-        <v>29027.230000000007</v>
-      </c>
-      <c r="H22" s="10">
-        <f>SUM(H3:H21)</f>
-        <v>29027.230000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+      <c r="G24" s="10">
+        <f>SUM(G3:G23)</f>
+        <v>31589.410000000007</v>
+      </c>
+      <c r="H24" s="10">
+        <f>SUM(H3:H23)</f>
+        <v>31589.410000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10">
-        <f>SUM(H22,-G22)</f>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10">
+        <f>SUM(H24,-G24)</f>
         <v>-3.637978807091713E-12</v>
       </c>
     </row>

--- a/sputnik/personal/ee/101ee.xlsx
+++ b/sputnik/personal/ee/101ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -469,7 +469,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
@@ -1059,25 +1059,76 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="4">
+        <v>44098</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>9811</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="12">C24-C22</f>
+        <v>134</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" ref="F24:F25" si="13">D24*E24</f>
+        <v>631.14</v>
+      </c>
+      <c r="G24" s="10">
+        <f>SUM(F24,F25)</f>
+        <v>738.24</v>
+      </c>
+      <c r="H24" s="10">
+        <v>738.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5822</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="12"/>
+        <v>42</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="13"/>
+        <v>107.1</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G26" s="10">
         <f>SUM(G3:G23)</f>
         <v>31589.410000000007</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H26" s="10">
         <f>SUM(H3:H23)</f>
         <v>31589.410000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10">
-        <f>SUM(H24,-G24)</f>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
+        <f>SUM(H26,-G26)</f>
         <v>-3.637978807091713E-12</v>
       </c>
     </row>

--- a/sputnik/personal/ee/101ee.xlsx
+++ b/sputnik/personal/ee/101ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1110,26 +1110,77 @@
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
+      <c r="A26" s="4">
+        <v>44158</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>10609</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D27" si="14">C26-C24</f>
+        <v>798</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" ref="F26:F27" si="15">D26*E26</f>
+        <v>3758.58</v>
+      </c>
+      <c r="G26" s="10">
+        <f>SUM(F26,F27)</f>
+        <v>5446.68</v>
+      </c>
+      <c r="H26" s="10">
+        <v>5477.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>6484</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="14"/>
+        <v>662</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="15"/>
+        <v>1688.1</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="10">
-        <f>SUM(G3:G23)</f>
-        <v>31589.410000000007</v>
-      </c>
-      <c r="H26" s="10">
-        <f>SUM(H3:H23)</f>
-        <v>31589.410000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="2" t="s">
+      <c r="G28" s="10">
+        <f>SUM(G3:G27)</f>
+        <v>37774.330000000009</v>
+      </c>
+      <c r="H28" s="10">
+        <f>SUM(H3:H27)</f>
+        <v>37805.33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10">
-        <f>SUM(H26,-G26)</f>
-        <v>-3.637978807091713E-12</v>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10">
+        <f>SUM(H28,-G28)</f>
+        <v>30.999999999992724</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/101ee.xlsx
+++ b/sputnik/personal/ee/101ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.12.2020.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 20.11.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,14 +82,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -145,8 +137,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -427,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,70 +694,197 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="3"/>
+      <c r="A12" s="4">
+        <v>44228</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>12323</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="7">SUM(C12,-C10)</f>
+        <v>594</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="8">D12*E12</f>
+        <v>2797.74</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>3539.79</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3539.79</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7123</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="7"/>
+        <v>291</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="8"/>
+        <v>742.05</v>
+      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="A14" s="4">
+        <v>44284</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>12567</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="9">SUM(C14,-C12)</f>
+        <v>244</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="10">D14*E14</f>
+        <v>1149.24</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(F14,F15)</f>
+        <v>1457.79</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1799.49</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>7244</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="9"/>
+        <v>121</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="10"/>
+        <v>308.54999999999995</v>
+      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
+      <c r="A16" s="4">
+        <v>44315</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>12962</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="11">SUM(C16,-C14)</f>
+        <v>395</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="12">D16*E16</f>
+        <v>1860.45</v>
+      </c>
+      <c r="G16" s="8">
+        <f>SUM(F16,F17)</f>
+        <v>2424</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7465</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="11"/>
+        <v>221</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="12"/>
+        <v>563.54999999999995</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/101ee.xlsx
+++ b/sputnik/personal/ee/101ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,22 +847,63 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="A18" s="4">
+        <v>44342</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>13179</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="13">SUM(C18,-C16)</f>
+        <v>217</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="14">D18*E18</f>
+        <v>1022.0699999999999</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUM(F18,F19)</f>
+        <v>1402.02</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1402.02</v>
+      </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>7614</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="13"/>
+        <v>149</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="14"/>
+        <v>379.95</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
@@ -873,8 +914,8 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
@@ -883,8 +924,28 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/101ee.xlsx
+++ b/sputnik/personal/ee/101ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.07.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,32 +898,63 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="A20" s="4">
+        <v>44403</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3">
+        <v>13429</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="15">SUM(C20,-C18)</f>
+        <v>250</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="16">D20*E20</f>
+        <v>1240</v>
+      </c>
+      <c r="G20" s="8">
+        <f>SUM(F20,F21)</f>
+        <v>1540.16</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1540.16</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>7726</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="15"/>
+        <v>112</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="16"/>
+        <v>300.16000000000003</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
@@ -934,8 +965,8 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
@@ -944,8 +975,28 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/101ee.xlsx
+++ b/sputnik/personal/ee/101ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.07.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\26.08.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,34 +949,71 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="A22" s="4">
+        <v>44440</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3">
+        <v>13571</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="17">SUM(C22,-C20)</f>
+        <v>142</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F23" si="18">D22*E22</f>
+        <v>704.32</v>
+      </c>
+      <c r="G22" s="8">
+        <f>SUM(F22,F23)</f>
+        <v>846.36000000000013</v>
+      </c>
+      <c r="H22" s="3">
+        <v>803.97</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3">
+        <v>7779</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="17"/>
+        <v>53</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="18"/>
+        <v>142.04000000000002</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8">
+        <f>SUM(G4:G23)</f>
+        <v>26119.820000000003</v>
+      </c>
+      <c r="H24" s="8">
+        <f>SUM(H4:H23)</f>
+        <v>26450.130000000005</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
@@ -985,8 +1022,8 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
@@ -995,8 +1032,28 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
